--- a/biology/Zoologie/Eremias_argus/Eremias_argus.xlsx
+++ b/biology/Zoologie/Eremias_argus/Eremias_argus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias argus est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias argus est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Russie en Bouriatie et dans l'oblast de Tchita ;
 en Mongolie ;
 en Chine en Mongolie-Intérieure, du Qinghai au Liaoning et jusqu'au Jiangsu ;
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 janvier 2013) :
 Eremias argus argus Peters, 1869
 Eremias argus barbouri Schmidt, 1925</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1869 : Eine Mittheilung über neue Gattungen und Arten von Eidechsen. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 57-66 (texte intégral).
 Schmidt, 1925 : New Chinese amphibians and reptiles. American Museum Novitates, n. 175, p. 1-3 (texte intégral).</t>
